--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/7_Ankara_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/7_Ankara_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9996F202-8852-4952-A17E-9C067E0B2156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C2F527-C5AE-48D2-A666-00A4B049E079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="663" xr2:uid="{4B56C277-9EF2-45DB-9390-36CED381003C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{2C92F062-BD10-4273-A733-884FA8D91C53}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -982,15 +982,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7DEEABBB-A803-4071-924D-851B3DE36890}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{11D083B7-036E-4621-92ED-27C1EB51F335}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{30D4195C-732D-444F-B43A-215B30DF0D87}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{004A7737-307B-4AA2-A456-82975B992FF9}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{BB49A82A-2FB4-4162-949B-3AF6D2B6FE32}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{D6A2EAAD-0E4D-471C-A8F2-4C50C0DB570E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{C20ED25A-D095-476B-94B5-AF061E9714E3}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{893436BE-E38A-4CA8-AEC5-D2EDD44AFCE1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{DAB08FFC-FDAD-4120-8A23-EB9DD932DCBD}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EE26A43B-A540-4751-A150-C0162640E39B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E5A5632D-0754-4C74-9891-1C3541F50577}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A35E468E-429F-4BDD-A2A2-F626A7D3274E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{9937025D-72D6-4801-937C-07478B031609}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{FF36105E-8B4F-4376-94C7-15AD0C2F34BF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{93B3420E-43AC-4553-A077-F661EAB650DE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{9E46EF9F-41F1-431B-BE10-DD4FDDBC4C96}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{AE4FF73D-A38F-4788-9B81-8758BA75E7E2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{DE74ED30-AA65-458F-9229-67C90D10DAB5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C74038-C97A-489C-91B9-615C1C097D7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A74FCF-FE07-4880-9037-A827CA5F15D3}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2694,17 +2694,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1BBBD8E-E969-4A3D-8CCB-BF0B5A16727C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E07F96A0-D4AE-4B5E-AE7C-8AE0B963D692}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{675CDD02-B4EE-4FA9-98E2-A48938440B64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A9A3348-4E81-41D1-AAC2-73AB3DBEEBF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E20FFDC9-1F20-409F-ABBF-FC065BAA85DE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CA6ABE0-E587-46FB-8F0E-0A8423E9A71C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DC90257-9093-4A1B-93C1-0916E4917868}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{982BF1DA-00F0-4154-AE7A-E5CBB748B72C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5D3B1195-83FA-4E59-9202-971C06430FAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1350CBBD-7A7E-4BBE-9978-30A04AB5E31B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69141879-1DD2-4AC4-89AF-8C60133147E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94C92B9A-103B-4CF3-B7E2-B3BB2A4A58A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{380B6FF6-57B5-4442-BE1E-A0B6EAA5C9B2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DF96651-69BD-4840-8DD0-B449FA9F6455}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54D6E0EC-D0FB-4721-8A97-C55BF00536A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAC8C72E-EA20-4288-BEE5-D5CABCE0B77A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F98ADDA-07A9-4A5B-A972-4D0B288B519F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2C2F613-C646-4A75-8A87-467D57712F92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5051D1E8-34A8-49C5-ADB3-9A94FB513567}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1BBDF4FC-11F4-4B42-A072-84DBE5CB4484}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0701FAAF-A124-48C7-BDF3-6BF2EDAB39AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E37D633A-48A8-42F5-BD14-839083E1637D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2175F5E-46C8-4A73-B740-D4A50933E7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C195A20-AEF0-4563-A1BC-3A826494EA0D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -4045,17 +4045,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E74FBF6-FA95-40E7-8012-9BFF4C34BD86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66A34F57-06C5-4825-83F1-4C44EB557A42}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BEAD192-CBA6-42F4-8276-2C97E5CF4018}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07CEDAC2-6283-41A1-9C3F-0C1007B5D040}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E46115C-B0A5-4DD3-BE8E-F23FB3D0A089}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F91B39AC-0212-4423-BA7A-C4659D64A1DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E225F1B-1ED2-4BBD-A2DB-48766FD779D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23D2D6C0-C313-4229-B099-ACBCB37171B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D6DF30D1-D16F-4AAA-A029-D9DEEB9D8348}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1873B192-63EB-47EE-912E-CA41238DCD49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8288B5C3-380E-48CA-99AC-F52F46331CF9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06021303-404C-456A-8FA6-0500AD2A253B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E974C34-EE0F-4966-8A1E-68122EDFC0E1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B645B08C-9928-4AA8-B750-864E3050340E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77823E7B-58F6-4478-ADD4-27A9EA958DF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{181AF592-2D2F-4756-B8DC-6F3AC8B7F346}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2F76678-7347-4C7B-98DC-F87C0F533207}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFA27CF9-F7C7-482A-AA5C-854951782531}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88588D0F-007A-4FA7-8479-03552B42DF85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{397CED94-655A-49FD-A6B2-F82AAF32E6E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DCCDDB81-37EF-4CAC-A609-8B4139A732B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{079DB1A1-B046-4182-92E2-A1106921B676}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4068,7 +4068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEA4017-8E02-4104-B7F7-30F3419D30CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD98D8E-D3FA-4C37-BFEF-F1640270070B}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5390,17 +5390,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29669E63-53EC-4A55-A14A-3D8061092DD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D4F31C7-F049-45D8-8077-047D96D0E30F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E5668C54-BE88-46B1-A0BF-7F7268893D4E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53F55670-1D05-4F08-8B13-1AD8CF44E589}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE58482E-76A1-4D11-B29D-DBAD815D58E7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9FC652A9-EB99-4353-A986-C80C17DA2C43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB391FBD-98F9-4BA2-9A59-63420338FF7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D05359B-71F6-4823-87F7-D25B27DBB3BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{845D758B-4A62-4F23-A549-CA6790712456}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B0BB0E77-92B8-4B6B-8F82-AA0C4398FE69}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A32536CE-F2A1-46AF-8188-565C0DB13C3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12FB331C-057E-48CA-8409-23B42B93AE5B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4856FBC-2184-4849-B5BE-63E1BCE1C205}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3035EE9C-0E6F-4AED-A182-C0A7B3C75159}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0362812E-FDEB-423F-A92E-F90D5D21AC70}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1EA8076-6312-4DD2-B3D4-BCE7CE1A6F6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67304E82-C381-437D-BA5B-3E7A34E54459}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{828D5AB7-1EE0-4097-B9CF-E50E974D5063}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4993497-1A4D-453C-B2DC-395A1D20663E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C2B76B6E-EE5E-4732-9BC4-77DEC3837466}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F2DE31BD-AFD0-4556-8D53-497EC398057B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5B0DF46-8786-4F42-9CA4-060DF0B24425}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5413,7 +5413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AEC972-0594-43FF-92CC-BD4212010FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E219740-FA00-4D0D-A640-DABC539F16FE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6735,17 +6735,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B5B05B6-599C-4A35-BC60-5643E546F2D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83F4651B-4E66-4675-AF08-7A3A919A6E5D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81C26D52-6254-4E18-B67F-540BA0D0967D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19F82405-FD32-4029-A792-1ED94B9EFCEC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{771C66B2-E32F-4201-AE99-40A6143135BA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4ACC03AA-176C-4961-85D2-165640306632}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E6FFCF2-D7E0-47E5-9F19-6B3CB66BB038}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4306E91-F020-4208-ADAA-D97C9A049CD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6B68C866-3DBD-4696-A856-066E8F6CEDCD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{180FC26A-6164-4736-9C3A-B6EF8D190689}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B320875-DC12-45DC-9694-8631A6722D0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95B16E8D-943E-4953-A85E-FC374AD885F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE832272-378F-4F79-8224-02071E4A8870}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8B51694-FC92-4ACA-A1BA-04E977F24D71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31DC4056-7D5E-446F-8845-A332873BDC4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D00E8D36-ADFF-40B3-9E40-FC8DF60C3264}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{02117924-7BF0-490F-829D-D46D0163C1EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{093AA9C4-1CDE-47D2-991D-722808097F64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16E94BB5-4D4C-41F3-AF5D-118D62C422F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C70910A5-0511-46B0-9763-B157F92D8E2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7536E227-FFD0-4FFF-AEE1-0A473359CB02}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39C75D6F-E7CC-406B-B5BC-0BB7615008E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6758,7 +6758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CB7DE7-CBB5-4D13-84E9-19BC730762DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E219C401-DEE4-486A-8656-E39A74D4575C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8087,17 +8087,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4EEAF94-CAEB-4EC3-8EBE-5419CD01C33C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA5EF306-53E7-4985-8968-A3126223AFC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F964748D-EC67-47C0-9F81-78C2D79CC94B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C87F4728-C17C-427E-A8FB-8C35454E7C14}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB51FC72-E6D9-43D9-9CD2-FDDECBDF576D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98D32AC4-7898-4C72-AA78-C657D0267D78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9190624E-878F-4B7F-BD8F-A537C8494B7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D04B0F19-ABAE-4654-8344-6B20E5064C9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4F3B2FE8-7143-4D6E-970A-C404406665F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2084273D-68BD-4360-8380-D137FD189E89}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DD00B47-197B-4D57-B58F-BB00EFD97862}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{807D38C5-89C8-4A40-BDBE-886431260FF5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5061E151-120B-418B-827A-1CDADEB7041F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4DFC0F5-7F6A-4E73-A066-F8674AE5253F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C693E575-58A2-4497-863A-63B9E9B0CCF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D770B908-F851-4BF5-8CA4-9BD71FC15F70}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BB9F4BC-8B3A-4A51-BE65-1135488D511A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D8B9FE9-78AC-44C9-A831-B066BC17AFC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29D90F41-44D5-475A-AB9F-6B86AE79640C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D78E08C6-B688-420C-AD7B-45F06EBEB455}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{706A28BF-7DD6-438E-A525-18C0FAA23632}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28EF8ED5-EF23-4EF1-9CAF-150BA15FD894}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8110,7 +8110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434C8CC-EB24-49BB-A7E9-88375091F00B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA63F80-EBBD-4A9B-9F15-B06636B3545B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9437,17 +9437,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E9F068E-59C8-4752-9069-905353CE48C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC961481-79BE-4542-97F7-351248BAA4C8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76EAB2C4-4A52-4728-B19F-B7DA19FD4531}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27B62DE3-4577-4C1B-B965-1CC8A9D493CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED1003EA-3033-4A0A-A055-AD308C5B17D7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A041AF7-9C40-4D5C-B4E7-1B690554BD68}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{394043C4-5182-4AD5-AA89-65DF423BE290}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97746D42-B7D4-491A-918F-EC7D9A3744EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E859EB24-C9E7-4A9F-8D57-64B3E00BD574}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F6D35669-4330-46F7-9794-A5AFAABA8783}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C40AA69-C6F1-4A7C-ABA2-9FDEFA2BC411}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A8744C5-39F8-4763-8C8F-15ABC6A074EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B2BD10E-8911-4FEC-AAF0-B4C2AFCE5102}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CEDE27CB-DE43-47C2-A321-4CAA02355B98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3D5465C-AC40-4B86-91E0-257BA7FF5713}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81E30E66-1A38-4216-933A-46CC15B50B35}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC326C48-E3B6-4CC2-8ADE-0CA3A9F5B20A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FDECFB4-D4E4-4CA6-B1A3-3DE9C9F85D4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{010072F2-3D46-4EF6-B65C-169CDA7C5BD7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0D48D9EC-B3C5-481A-B6B0-4E79927DF832}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{025ED59E-2442-477A-B3CA-99404968053D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{691FF088-FADD-49B5-AE13-1D1274AF96FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9460,7 +9460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC779B38-F09F-4DF9-A522-4C5E042F663C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9715207A-2E18-45C1-B673-E2EE45E06D70}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10787,17 +10787,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56888957-83CF-4B74-BAE1-6F36E3168F4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F67A9262-CA7F-4146-BAC6-E1AB1C76BCAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FD1DF7C-F319-4F9A-ADBC-969A29BCCBD4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F04CC1C5-5B55-4D0E-9771-2519CBDDF253}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3E6FB7F-02AF-4A58-854A-1A67312487F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CB2E67D-891E-462F-9B0A-47508CC86F71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E98D3DC0-A65D-461F-B77A-B09C9B8951A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1B73D65-F5B7-4AE0-A12D-5B74A990C60A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{530D01CB-71DB-4E04-A92D-C277BD2AF82F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D06F871-483E-4D89-986A-82B4EACEA3DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35362A9F-4BA5-4ADF-969A-E63D5933C711}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CCEF2BA-E722-45DC-B4C4-84B2FDA5C024}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2A3C8C1-4ECC-420E-A182-C950D53197F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47473A4C-F605-40F7-A945-62EAE91D9243}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDBCE7DD-0324-4CB3-B3BD-FAE41D1CD1D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F21DC6C-10A1-4FD9-B0A1-15D30AED6E56}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABAE7E96-DB95-4F9D-BCB4-DEA5D8FF356C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0973283E-3814-40CC-B9C0-2F166766C91A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E6FBF91-39DB-4AE3-A084-9192ED847BB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{092FE721-47ED-4A3F-A99C-79582F0DB101}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CBE0299A-73CC-4CC5-B21A-7ECE9EDC1DCA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{663CD759-62F4-4213-9499-0DF1EF441697}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10810,7 +10810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DFE9D6-CBFF-4716-A02F-E4A0D52EE4A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830CD9D9-1A10-4480-BC06-0E085A145CF4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12137,17 +12137,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55E70FE1-9B22-49D8-8A93-CF83C77FA459}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C04EDF94-BA94-4877-AC36-EB799B104F99}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69071812-E288-490D-92DC-DE3FCE72575B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F8C2837-9D4A-4B7A-8663-659211E29076}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABC1AD7F-483B-4E34-9698-89078A013396}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7DBFB387-1CB5-41DE-BA54-1E4FFD913B04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28F56190-CD6E-4E65-AFAE-102296C7DAF5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B59B7692-C6DA-48AE-AD74-E64D10AA9AA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{26A3A32F-FA2E-4F17-8F15-AFF51DC56D12}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DAD45BF4-DE6A-4D58-B14D-0AFF275194C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17045B4B-7184-4F62-9CB9-B1884A5AE4BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86950253-5C02-4A2F-9716-341B1A656C1B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B6703BA-B02A-4FDD-AAB2-1A01A36E65F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F44FD333-6090-48A9-AD95-FC3269FF47DC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9199A8A0-E7E7-44AB-82A7-AA389188F68F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84DF8CEE-5F8B-48CC-A6A7-AEF3D8F16D84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99ABD5E9-6FAD-422E-958F-7A6E6291CCF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEA94E82-3EC4-45ED-AD6A-FE0CE1B528F1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD0E6F31-EA4A-4124-B511-E90AC47C6D40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1DC2CA44-02C1-4989-BCF2-8B2E5B354ECA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D2ABCE3-330F-48DC-B1AF-271F5AC68C83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42BA0E76-3B23-4280-868D-A6CC5C45A253}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12160,7 +12160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844FC13C-56CC-4296-A698-A9040E7C2ACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEAD31D-68C8-4F9A-9590-11B20A851F6B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13487,17 +13487,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{767203CD-B021-4FC5-A463-5803FA414738}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69BFC58F-84D1-46F0-9CA1-75033F815AB1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F35D1B9C-9591-482C-95FF-DA20D3F8B2D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B0C3E03-60CB-4B7B-92C8-A3405965A49A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{785A0AA8-E594-4D27-9244-84893695B1C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96685A7E-C841-4A64-B5CA-614072BD8B5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F0579F4-58FB-4E78-AB3D-187B133D45BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEF56246-FBA0-4BD5-AD30-84D06D65896B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{27821B63-BD29-4CAA-884D-8B9AFBFE4DA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BACF6AB0-6D0C-4A09-840F-BE1EF441BC34}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90948473-E560-40D2-A85B-57A3F84C3DA1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE631618-F7D9-4149-8AE0-EFC093BAEFE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A8B090D-1DE3-4C02-82CB-0A62D0C135DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30BD2ADE-E8ED-4F10-AE08-22E6A31F1C95}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{962E416E-82C8-4A51-80D9-8E8DB381E0D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8E8A10F-D51D-4494-8993-B251AEAE0C14}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C6636BE-1764-424F-B89D-8D24C6018292}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F6B42BF-90B1-404F-9164-B085931DEB1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB69DA66-91C1-4C20-A148-B39F95D5409C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B9CBEC23-2BBF-4881-93AF-1FC6BA221B69}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B0562AD-D1DB-4879-94C6-6FD39038C769}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3766A2F9-C7F6-4996-8289-81F97C5F4517}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13510,7 +13510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B925DED2-10D1-4DBE-9AEC-26230A5E6B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47B6AC-BDE0-4F54-BBB0-7DF29A4F5820}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14837,17 +14837,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B1F8DC3-52BA-46F7-9B3C-24F952798ED0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30215590-4343-4989-BB7C-1B8ABB22A4CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33B1F595-88AA-4812-AACD-5460A85393D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{023257A3-4345-4254-9156-DA93FB232101}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8EB4D63-D161-4FAF-92DF-D980CDE9D174}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC1BFC23-E6BC-49B3-BA37-67A2F57432BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CA00AAA-F98A-418F-842A-8C13D6B866D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6D8B29E-0024-4AE5-8FC6-C18485C36799}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6969E3C3-DF73-4B5B-8A26-3774FA8A50DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1A8F387C-53A1-45B3-ABCF-283CE8C3F4C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D8ECB94-4813-4ECB-B241-C6D1A95F1AA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D61228E2-BC0A-4F9D-BE4E-A05F3392AEED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F28CD81-FA34-4D07-905C-E53AC5C3CB69}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{553514E6-E1F7-48BC-A25F-32AE0EB96559}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B1EBFDE-ED98-4461-A66B-69D06B36C820}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C32514C0-67B0-4EA9-BC6A-05B615CD096B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E558527A-3073-441B-9068-6D15E3537091}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFF2734D-3505-4CB9-BF4F-08A67221F778}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE3F1AFA-26C9-4EA9-BCF4-22F40B9A8BF8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B3C514F3-89F3-40CB-8DA9-84035B732102}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{957093D8-E63A-4888-80C1-ED557292B7A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A77193BD-F7E6-4115-936F-DD92B84CD0D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14860,7 +14860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD904F-CCBB-48C0-986C-04CADA9573D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278FE7C9-7B00-4D4E-8A3C-A632408E5DDA}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16188,17 +16188,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3733BA66-93C6-4796-AB2E-DD6849B289D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ACA5BA3-7B5E-411F-AD4C-7FB949C2A1B7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96BE32C6-7771-4081-87E3-4E8DF2A996D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{861670D5-D5CB-431A-B34F-9760D4E06CB6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{998F4DEE-C39B-4D8D-B282-AC83AB72FB3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A2804D2-0B2A-44C8-AC2B-E948AA312FF1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBA906DF-4B35-45F9-A786-9439601DBF8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEDBC7BA-E679-454C-9EDF-74B0442D2DB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{239433FB-BA59-429A-8807-A0E15D662C6E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AB3C6DE3-93C3-49EB-AA0E-DC1C1C02744B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14ED22FD-3E61-4BAA-B744-2CCCD9F14738}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9B193CA-54FF-480C-9E61-D6D3F4F83E4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1510DFE-EB06-46EE-AF3F-E5EACC0E8249}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9DAD33B-2B96-40DF-A942-9970E6DF01D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{469A307E-762C-4411-8E6C-A09F991FE195}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8057E147-7664-4B5F-972A-07B15BF67F96}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDB1410C-D09D-424E-BFA1-57F57EB08684}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{844CF8F1-9970-4A61-8A41-37197E81B9ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94652169-BA8B-45EC-9BFA-C659D55A0857}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D47F0763-6BB2-4B3A-A791-6AF300BC8D8D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AA135C3A-5C1B-4947-A131-D113D7A7B584}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33EB827F-F3B9-4EE1-B935-D910EB3335E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16211,7 +16211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0DC80F-6BB9-41FE-89B9-7CDC35D79B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C8C09-C872-400B-8C32-A3C92C861EC0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17539,17 +17539,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34DC6BA2-69D1-4398-A5A7-D6AA8897164E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7A8C102-131F-4AB8-80A7-3FFDB1F52CC9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59E459EF-211B-4BBC-9AB5-AFBCA45876E9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A49A2C9-1560-4B9D-9338-AACDE79AF3B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9860D9B-3DE6-4E46-9057-C00AD8651BE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5C262B6-6870-4DF6-A23D-9A0A46090F89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A53CF11-F9C9-4709-8A2E-8959F4D919A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CA8B063-F23A-449B-86B1-27B4E9FE97C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0FF5D28C-5738-4CF9-9C4E-C514FABDFD73}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A7E3DA1F-59C4-4E7F-BEFF-738784E353B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{341AC937-CFA1-4C7B-AAFA-6ED5C4C9270F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52FB64C2-3B76-4983-9177-A76E400D6815}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{554ADC88-BD9E-482B-A91C-CC82BEB1770F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66050886-5F64-4958-AC27-31A32A14E8ED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{317276CD-D28F-4A10-99D0-34AB04D72BE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCE0415A-7251-4268-9BAE-B6ACBCC34C3F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCDDDCA8-59DF-413C-A7D8-EABBB3D6FD4E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C5595CD-A4C1-477B-999E-3BE8B2FA3861}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B27CC28-706B-41F0-9731-8D3F516A3F85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F94DD4BF-1B53-4358-BD2A-5FF7F87D27A0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CE5D4BD8-3228-43A1-9A67-13619D0A41C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D52F811-FD9E-407C-AD32-1B2FA56A06F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
